--- a/biology/Biochimie/Sous-famille_de_protéines/Sous-famille_de_protéines.xlsx
+++ b/biology/Biochimie/Sous-famille_de_protéines/Sous-famille_de_protéines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sous-famille_de_prot%C3%A9ines</t>
+          <t>Sous-famille_de_protéines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille de protéines est un niveau de classification des protéines, portant essentiellement sur leurs structures tridimensionnelles. 
 Une famille de protéines dans la base de données de classification des protéines SCOP (en) (Structural Classification of Proteins) regroupe des protéines ayant des caractéristiques structurales et fonctionnelles voisines.
